--- a/_site/posts/2022-02-10-political-marketing/total_seguidores_100.xlsx
+++ b/_site/posts/2022-02-10-political-marketing/total_seguidores_100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>date</t>
   </si>
@@ -290,6 +290,75 @@
   </si>
   <si>
     <t>2022-02-22</t>
+  </si>
+  <si>
+    <t>2022-02-24</t>
+  </si>
+  <si>
+    <t>2022-02-25</t>
+  </si>
+  <si>
+    <t>2022-02-26</t>
+  </si>
+  <si>
+    <t>2022-02-27</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-03-02</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-03-12</t>
+  </si>
+  <si>
+    <t>2022-03-13</t>
+  </si>
+  <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-03-23</t>
+  </si>
+  <si>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-04-09</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>2022-05-22</t>
   </si>
 </sst>
 </file>
@@ -647,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD63"/>
+  <dimension ref="A1:AD86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4031,6 +4100,1225 @@
         <v>100.1982455227127</v>
       </c>
     </row>
+    <row r="64" spans="1:17">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>112.7781136597928</v>
+      </c>
+      <c r="C64">
+        <v>99.90403079059271</v>
+      </c>
+      <c r="D64">
+        <v>100.2786723913437</v>
+      </c>
+      <c r="E64">
+        <v>100.3761796595845</v>
+      </c>
+      <c r="F64">
+        <v>100.9567102817347</v>
+      </c>
+      <c r="G64">
+        <v>100.5235928542609</v>
+      </c>
+      <c r="H64">
+        <v>100.1675736456565</v>
+      </c>
+      <c r="I64">
+        <v>101.3831778142851</v>
+      </c>
+      <c r="J64">
+        <v>104.4986612263842</v>
+      </c>
+      <c r="K64">
+        <v>100.1821019882354</v>
+      </c>
+      <c r="L64">
+        <v>101.7383133934359</v>
+      </c>
+      <c r="M64">
+        <v>101.031351587059</v>
+      </c>
+      <c r="N64">
+        <v>103.7453010651774</v>
+      </c>
+      <c r="O64">
+        <v>100.1335168135178</v>
+      </c>
+      <c r="P64">
+        <v>102.3295363262683</v>
+      </c>
+      <c r="Q64">
+        <v>100.2278014862679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65">
+        <v>113.1094973879402</v>
+      </c>
+      <c r="C65">
+        <v>99.94752174862143</v>
+      </c>
+      <c r="D65">
+        <v>100.2904720946577</v>
+      </c>
+      <c r="E65">
+        <v>100.3975507441833</v>
+      </c>
+      <c r="F65">
+        <v>100.9889267326012</v>
+      </c>
+      <c r="G65">
+        <v>100.5403674563066</v>
+      </c>
+      <c r="H65">
+        <v>100.1828961239716</v>
+      </c>
+      <c r="I65">
+        <v>101.4086531081492</v>
+      </c>
+      <c r="J65">
+        <v>104.6004462089133</v>
+      </c>
+      <c r="K65">
+        <v>100.2034049692411</v>
+      </c>
+      <c r="L65">
+        <v>101.8016290605589</v>
+      </c>
+      <c r="M65">
+        <v>101.0620901892032</v>
+      </c>
+      <c r="N65">
+        <v>103.80812447754</v>
+      </c>
+      <c r="O65">
+        <v>100.1429686726687</v>
+      </c>
+      <c r="P65">
+        <v>102.3546145979052</v>
+      </c>
+      <c r="Q65">
+        <v>100.2386533773644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <v>113.2192883561249</v>
+      </c>
+      <c r="C66">
+        <v>99.96421842181454</v>
+      </c>
+      <c r="D66">
+        <v>100.2974235402442</v>
+      </c>
+      <c r="E66">
+        <v>100.4024887599428</v>
+      </c>
+      <c r="F66">
+        <v>100.9954792310825</v>
+      </c>
+      <c r="G66">
+        <v>100.5492978199856</v>
+      </c>
+      <c r="H66">
+        <v>100.190046613852</v>
+      </c>
+      <c r="I66">
+        <v>101.4155118411125</v>
+      </c>
+      <c r="J66">
+        <v>104.6445089719129</v>
+      </c>
+      <c r="K66">
+        <v>100.2098643068553</v>
+      </c>
+      <c r="L66">
+        <v>101.8359226332366</v>
+      </c>
+      <c r="M66">
+        <v>101.0813911719449</v>
+      </c>
+      <c r="N66">
+        <v>103.8529983435133</v>
+      </c>
+      <c r="O66">
+        <v>100.1498156887465</v>
+      </c>
+      <c r="P66">
+        <v>102.3655863417463</v>
+      </c>
+      <c r="Q66">
+        <v>100.2368888422267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <v>113.2692238086876</v>
+      </c>
+      <c r="C67">
+        <v>99.97044039413366</v>
+      </c>
+      <c r="D67">
+        <v>100.3015752877065</v>
+      </c>
+      <c r="E67">
+        <v>100.4058077541418</v>
+      </c>
+      <c r="F67">
+        <v>101.0058995238063</v>
+      </c>
+      <c r="G67">
+        <v>100.5593947627037</v>
+      </c>
+      <c r="H67">
+        <v>100.1949785365597</v>
+      </c>
+      <c r="I67">
+        <v>101.4197577234232</v>
+      </c>
+      <c r="J67">
+        <v>104.6843123344892</v>
+      </c>
+      <c r="K67">
+        <v>100.2129870329867</v>
+      </c>
+      <c r="L67">
+        <v>101.8632648060473</v>
+      </c>
+      <c r="M67">
+        <v>101.0953307705917</v>
+      </c>
+      <c r="N67">
+        <v>103.8986414757604</v>
+      </c>
+      <c r="O67">
+        <v>100.1557696157708</v>
+      </c>
+      <c r="P67">
+        <v>102.3793010215477</v>
+      </c>
+      <c r="Q67">
+        <v>100.2385651506075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68">
+        <v>113.4260680489515</v>
+      </c>
+      <c r="C68">
+        <v>99.99346378665464</v>
+      </c>
+      <c r="D68">
+        <v>100.3330957914665</v>
+      </c>
+      <c r="E68">
+        <v>100.4300121264715</v>
+      </c>
+      <c r="F68">
+        <v>101.0357042912039</v>
+      </c>
+      <c r="G68">
+        <v>100.578140481057</v>
+      </c>
+      <c r="H68">
+        <v>100.2085931969792</v>
+      </c>
+      <c r="I68">
+        <v>101.4511119312559</v>
+      </c>
+      <c r="J68">
+        <v>104.7762566332818</v>
+      </c>
+      <c r="K68">
+        <v>100.2313811732125</v>
+      </c>
+      <c r="L68">
+        <v>101.946276106127</v>
+      </c>
+      <c r="M68">
+        <v>101.1344688744846</v>
+      </c>
+      <c r="N68">
+        <v>104.0053130657312</v>
+      </c>
+      <c r="O68">
+        <v>100.1663378362387</v>
+      </c>
+      <c r="P68">
+        <v>102.419269516969</v>
+      </c>
+      <c r="Q68">
+        <v>100.2494170417039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69">
+        <v>113.6230617336249</v>
+      </c>
+      <c r="C69">
+        <v>99.99088701023965</v>
+      </c>
+      <c r="D69">
+        <v>100.3403476924615</v>
+      </c>
+      <c r="E69">
+        <v>100.4404548155368</v>
+      </c>
+      <c r="F69">
+        <v>101.0515394958671</v>
+      </c>
+      <c r="G69">
+        <v>100.6351419465216</v>
+      </c>
+      <c r="H69">
+        <v>100.2121205591747</v>
+      </c>
+      <c r="I69">
+        <v>101.5223121115426</v>
+      </c>
+      <c r="J69">
+        <v>104.8571852413244</v>
+      </c>
+      <c r="K69">
+        <v>100.2360866509447</v>
+      </c>
+      <c r="L69">
+        <v>101.9870576520141</v>
+      </c>
+      <c r="M69">
+        <v>101.1539485700295</v>
+      </c>
+      <c r="N69">
+        <v>104.1355754880994</v>
+      </c>
+      <c r="O69">
+        <v>100.1736313968434</v>
+      </c>
+      <c r="P69">
+        <v>102.4576706204129</v>
+      </c>
+      <c r="Q69">
+        <v>100.3759342110719</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70">
+        <v>113.6786274922483</v>
+      </c>
+      <c r="C70">
+        <v>99.98292623757543</v>
+      </c>
+      <c r="D70">
+        <v>100.3405525484218</v>
+      </c>
+      <c r="E70">
+        <v>100.4351929954651</v>
+      </c>
+      <c r="F70">
+        <v>101.0584560220419</v>
+      </c>
+      <c r="G70">
+        <v>100.6650305060419</v>
+      </c>
+      <c r="H70">
+        <v>100.211705575387</v>
+      </c>
+      <c r="I70">
+        <v>101.5389690344537</v>
+      </c>
+      <c r="J70">
+        <v>104.8654102904177</v>
+      </c>
+      <c r="K70">
+        <v>100.2372416318426</v>
+      </c>
+      <c r="L70">
+        <v>102.0050733633364</v>
+      </c>
+      <c r="M70">
+        <v>101.1668158918573</v>
+      </c>
+      <c r="N70">
+        <v>104.1594227425881</v>
+      </c>
+      <c r="O70">
+        <v>100.174524485897</v>
+      </c>
+      <c r="P70">
+        <v>102.4623727963449</v>
+      </c>
+      <c r="Q70">
+        <v>100.3932266554207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <v>114.106664807772</v>
+      </c>
+      <c r="C71">
+        <v>99.94613908810605</v>
+      </c>
+      <c r="D71">
+        <v>100.3421231107842</v>
+      </c>
+      <c r="E71">
+        <v>100.450735602446</v>
+      </c>
+      <c r="F71">
+        <v>101.0884428032863</v>
+      </c>
+      <c r="G71">
+        <v>101.007642701781</v>
+      </c>
+      <c r="H71">
+        <v>100.2116257708124</v>
+      </c>
+      <c r="I71">
+        <v>101.5595452333439</v>
+      </c>
+      <c r="J71">
+        <v>104.9992142140598</v>
+      </c>
+      <c r="K71">
+        <v>100.234375568133</v>
+      </c>
+      <c r="L71">
+        <v>102.1104449996553</v>
+      </c>
+      <c r="M71">
+        <v>101.23079507539</v>
+      </c>
+      <c r="N71">
+        <v>104.3096860880759</v>
+      </c>
+      <c r="O71">
+        <v>100.1863579158576</v>
+      </c>
+      <c r="P71">
+        <v>102.5889396985121</v>
+      </c>
+      <c r="Q71">
+        <v>100.4388398887284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72">
+        <v>114.4808120509998</v>
+      </c>
+      <c r="C72">
+        <v>99.95210966760423</v>
+      </c>
+      <c r="D72">
+        <v>100.3536496728177</v>
+      </c>
+      <c r="E72">
+        <v>100.4680591331435</v>
+      </c>
+      <c r="F72">
+        <v>101.1162454183702</v>
+      </c>
+      <c r="G72">
+        <v>101.1092959856406</v>
+      </c>
+      <c r="H72">
+        <v>100.2206596486524</v>
+      </c>
+      <c r="I72">
+        <v>101.628785775641</v>
+      </c>
+      <c r="J72">
+        <v>105.0985023066856</v>
+      </c>
+      <c r="K72">
+        <v>100.2500747529303</v>
+      </c>
+      <c r="L72">
+        <v>102.191370879775</v>
+      </c>
+      <c r="M72">
+        <v>101.2802985218664</v>
+      </c>
+      <c r="N72">
+        <v>104.478924668318</v>
+      </c>
+      <c r="O72">
+        <v>100.1929072355842</v>
+      </c>
+      <c r="P72">
+        <v>102.6935631129972</v>
+      </c>
+      <c r="Q72">
+        <v>100.4653961425497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73">
+        <v>114.732969329578</v>
+      </c>
+      <c r="C73">
+        <v>99.97366660200284</v>
+      </c>
+      <c r="D73">
+        <v>100.3846512081449</v>
+      </c>
+      <c r="E73">
+        <v>100.482468425032</v>
+      </c>
+      <c r="F73">
+        <v>101.1408172876752</v>
+      </c>
+      <c r="G73">
+        <v>101.1184274836367</v>
+      </c>
+      <c r="H73">
+        <v>100.2296296828327</v>
+      </c>
+      <c r="I73">
+        <v>101.7221951864759</v>
+      </c>
+      <c r="J73">
+        <v>105.2756346139441</v>
+      </c>
+      <c r="K73">
+        <v>100.2667150332741</v>
+      </c>
+      <c r="L73">
+        <v>102.2437960204394</v>
+      </c>
+      <c r="M73">
+        <v>101.3224747434131</v>
+      </c>
+      <c r="N73">
+        <v>104.589442589658</v>
+      </c>
+      <c r="O73">
+        <v>100.2007961888913</v>
+      </c>
+      <c r="P73">
+        <v>102.7664468399418</v>
+      </c>
+      <c r="Q73">
+        <v>100.4868352444719</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <v>114.8010692219319</v>
+      </c>
+      <c r="C74">
+        <v>99.96241677326421</v>
+      </c>
+      <c r="D74">
+        <v>100.3866587965559</v>
+      </c>
+      <c r="E74">
+        <v>100.4893492666642</v>
+      </c>
+      <c r="F74">
+        <v>101.1490079107768</v>
+      </c>
+      <c r="G74">
+        <v>101.1193929283588</v>
+      </c>
+      <c r="H74">
+        <v>100.2302202366844</v>
+      </c>
+      <c r="I74">
+        <v>101.7430979916977</v>
+      </c>
+      <c r="J74">
+        <v>105.326600543147</v>
+      </c>
+      <c r="K74">
+        <v>100.2718482817093</v>
+      </c>
+      <c r="L74">
+        <v>102.2672569949909</v>
+      </c>
+      <c r="M74">
+        <v>101.3358782036504</v>
+      </c>
+      <c r="N74">
+        <v>104.6209825068849</v>
+      </c>
+      <c r="O74">
+        <v>100.2019125502084</v>
+      </c>
+      <c r="P74">
+        <v>102.7911332635844</v>
+      </c>
+      <c r="Q74">
+        <v>100.499451670706</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <v>115.4829395023614</v>
+      </c>
+      <c r="C75">
+        <v>99.95330378350386</v>
+      </c>
+      <c r="D75">
+        <v>100.3975571336445</v>
+      </c>
+      <c r="E75">
+        <v>100.5034347542406</v>
+      </c>
+      <c r="F75">
+        <v>101.1712591035363</v>
+      </c>
+      <c r="G75">
+        <v>101.3313080448497</v>
+      </c>
+      <c r="H75">
+        <v>100.2327580221553</v>
+      </c>
+      <c r="I75">
+        <v>101.7829439641517</v>
+      </c>
+      <c r="J75">
+        <v>105.4567325698725</v>
+      </c>
+      <c r="K75">
+        <v>100.2861786002573</v>
+      </c>
+      <c r="L75">
+        <v>102.3230999072567</v>
+      </c>
+      <c r="M75">
+        <v>101.3775182867876</v>
+      </c>
+      <c r="N75">
+        <v>104.7127816155617</v>
+      </c>
+      <c r="O75">
+        <v>100.2107690166569</v>
+      </c>
+      <c r="P75">
+        <v>102.8961485260638</v>
+      </c>
+      <c r="Q75">
+        <v>100.5196555980318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <v>116.1220462677103</v>
+      </c>
+      <c r="C76">
+        <v>99.94467262998371</v>
+      </c>
+      <c r="D76">
+        <v>100.4192582083735</v>
+      </c>
+      <c r="E76">
+        <v>100.5389722774938</v>
+      </c>
+      <c r="F76">
+        <v>101.2419259795189</v>
+      </c>
+      <c r="G76">
+        <v>101.6302338669159</v>
+      </c>
+      <c r="H76">
+        <v>100.2507619341756</v>
+      </c>
+      <c r="I76">
+        <v>101.8747203433286</v>
+      </c>
+      <c r="J76">
+        <v>105.8049752734462</v>
+      </c>
+      <c r="K76">
+        <v>100.3055993901701</v>
+      </c>
+      <c r="L76">
+        <v>102.4688475911372</v>
+      </c>
+      <c r="M76">
+        <v>101.4843885430796</v>
+      </c>
+      <c r="N76">
+        <v>105.0340784959306</v>
+      </c>
+      <c r="O76">
+        <v>100.2744016117281</v>
+      </c>
+      <c r="P76">
+        <v>103.0148784683446</v>
+      </c>
+      <c r="Q76">
+        <v>100.6087646224821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77">
+        <v>116.321788077961</v>
+      </c>
+      <c r="C77">
+        <v>99.94544775784838</v>
+      </c>
+      <c r="D77">
+        <v>100.4244615497654</v>
+      </c>
+      <c r="E77">
+        <v>100.5448817061897</v>
+      </c>
+      <c r="F77">
+        <v>101.2553039972516</v>
+      </c>
+      <c r="G77">
+        <v>101.6405721708145</v>
+      </c>
+      <c r="H77">
+        <v>100.2598277338454</v>
+      </c>
+      <c r="I77">
+        <v>101.8903974472449</v>
+      </c>
+      <c r="J77">
+        <v>105.8584380925524</v>
+      </c>
+      <c r="K77">
+        <v>100.3132137086822</v>
+      </c>
+      <c r="L77">
+        <v>102.5118304136488</v>
+      </c>
+      <c r="M77">
+        <v>101.5190588268934</v>
+      </c>
+      <c r="N77">
+        <v>105.3569139088471</v>
+      </c>
+      <c r="O77">
+        <v>100.2813974759815</v>
+      </c>
+      <c r="P77">
+        <v>103.0403485879758</v>
+      </c>
+      <c r="Q77">
+        <v>100.6180284319547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78">
+        <v>116.7569973309668</v>
+      </c>
+      <c r="C78">
+        <v>99.92875108465527</v>
+      </c>
+      <c r="D78">
+        <v>100.4363295383994</v>
+      </c>
+      <c r="E78">
+        <v>100.5609100196387</v>
+      </c>
+      <c r="F78">
+        <v>101.3009439693125</v>
+      </c>
+      <c r="G78">
+        <v>101.8018014393976</v>
+      </c>
+      <c r="H78">
+        <v>100.2708886478791</v>
+      </c>
+      <c r="I78">
+        <v>101.9919720163695</v>
+      </c>
+      <c r="J78">
+        <v>106.0790456593038</v>
+      </c>
+      <c r="K78">
+        <v>100.3285706769172</v>
+      </c>
+      <c r="L78">
+        <v>102.6454131477619</v>
+      </c>
+      <c r="M78">
+        <v>101.598228598695</v>
+      </c>
+      <c r="N78">
+        <v>105.747957598043</v>
+      </c>
+      <c r="O78">
+        <v>100.3005244665467</v>
+      </c>
+      <c r="P78">
+        <v>103.1336084106254</v>
+      </c>
+      <c r="Q78">
+        <v>100.6416732027989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79">
+        <v>117.5178929786062</v>
+      </c>
+      <c r="C79">
+        <v>99.92858348944129</v>
+      </c>
+      <c r="D79">
+        <v>100.4553811427084</v>
+      </c>
+      <c r="E79">
+        <v>100.6074568895034</v>
+      </c>
+      <c r="F79">
+        <v>101.3666054645107</v>
+      </c>
+      <c r="G79">
+        <v>102.1883011431268</v>
+      </c>
+      <c r="H79">
+        <v>100.2854609631933</v>
+      </c>
+      <c r="I79">
+        <v>102.0938731918257</v>
+      </c>
+      <c r="J79">
+        <v>106.4440322128173</v>
+      </c>
+      <c r="K79">
+        <v>100.3455103967531</v>
+      </c>
+      <c r="L79">
+        <v>102.8176340794696</v>
+      </c>
+      <c r="M79">
+        <v>101.7276166681857</v>
+      </c>
+      <c r="N79">
+        <v>106.201311855419</v>
+      </c>
+      <c r="O79">
+        <v>100.3341641542335</v>
+      </c>
+      <c r="P79">
+        <v>103.243717697031</v>
+      </c>
+      <c r="Q79">
+        <v>100.6617889033679</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80">
+        <v>118.8733221352802</v>
+      </c>
+      <c r="C80">
+        <v>99.92416316567247</v>
+      </c>
+      <c r="D80">
+        <v>100.4686694660006</v>
+      </c>
+      <c r="E80">
+        <v>100.6407277825719</v>
+      </c>
+      <c r="F80">
+        <v>101.4547001663151</v>
+      </c>
+      <c r="G80">
+        <v>102.1543898972646</v>
+      </c>
+      <c r="H80">
+        <v>100.3316358900325</v>
+      </c>
+      <c r="I80">
+        <v>102.1474366302065</v>
+      </c>
+      <c r="J80">
+        <v>106.6402583840422</v>
+      </c>
+      <c r="K80">
+        <v>100.3684389064299</v>
+      </c>
+      <c r="L80">
+        <v>102.957473073463</v>
+      </c>
+      <c r="M80">
+        <v>101.8316275196271</v>
+      </c>
+      <c r="N80">
+        <v>106.4443999979486</v>
+      </c>
+      <c r="O80">
+        <v>100.3980200215681</v>
+      </c>
+      <c r="P80">
+        <v>103.3287487117997</v>
+      </c>
+      <c r="Q80">
+        <v>100.680316522313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <v>120.413210842897</v>
+      </c>
+      <c r="C81">
+        <v>99.97266103071894</v>
+      </c>
+      <c r="D81">
+        <v>100.516919873186</v>
+      </c>
+      <c r="E81">
+        <v>100.7024125040273</v>
+      </c>
+      <c r="F81">
+        <v>101.6542783492254</v>
+      </c>
+      <c r="G81">
+        <v>102.2006910170598</v>
+      </c>
+      <c r="H81">
+        <v>100.3981131006392</v>
+      </c>
+      <c r="I81">
+        <v>102.4175400664317</v>
+      </c>
+      <c r="J81">
+        <v>107.0822078969284</v>
+      </c>
+      <c r="K81">
+        <v>100.4080076964505</v>
+      </c>
+      <c r="L81">
+        <v>103.22388547337</v>
+      </c>
+      <c r="M81">
+        <v>102.0291051671233</v>
+      </c>
+      <c r="N81">
+        <v>107.0628900821063</v>
+      </c>
+      <c r="O81">
+        <v>100.4738581670389</v>
+      </c>
+      <c r="P81">
+        <v>103.4984188933429</v>
+      </c>
+      <c r="Q81">
+        <v>100.7033437058591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82">
+        <v>121.2211597626156</v>
+      </c>
+      <c r="C82">
+        <v>100.0000418988035</v>
+      </c>
+      <c r="D82">
+        <v>100.54064219339</v>
+      </c>
+      <c r="E82">
+        <v>100.7444261135226</v>
+      </c>
+      <c r="F82">
+        <v>101.7460133279639</v>
+      </c>
+      <c r="G82">
+        <v>102.4028712326034</v>
+      </c>
+      <c r="H82">
+        <v>100.4237144081573</v>
+      </c>
+      <c r="I82">
+        <v>102.6242818743284</v>
+      </c>
+      <c r="J82">
+        <v>107.3791909195458</v>
+      </c>
+      <c r="K82">
+        <v>100.4335028303448</v>
+      </c>
+      <c r="L82">
+        <v>103.4055487232306</v>
+      </c>
+      <c r="M82">
+        <v>102.1826194650411</v>
+      </c>
+      <c r="N82">
+        <v>107.7924109317866</v>
+      </c>
+      <c r="O82">
+        <v>100.565027674597</v>
+      </c>
+      <c r="P82">
+        <v>103.6751423387839</v>
+      </c>
+      <c r="Q82">
+        <v>100.7291941456253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83">
+        <v>122.4046635020772</v>
+      </c>
+      <c r="C83">
+        <v>100.0018016485503</v>
+      </c>
+      <c r="D83">
+        <v>100.5622749827989</v>
+      </c>
+      <c r="E83">
+        <v>100.8193058606961</v>
+      </c>
+      <c r="F83">
+        <v>101.8508533036651</v>
+      </c>
+      <c r="G83">
+        <v>102.7391678107857</v>
+      </c>
+      <c r="H83">
+        <v>100.4682932435053</v>
+      </c>
+      <c r="I83">
+        <v>102.8274310125776</v>
+      </c>
+      <c r="J83">
+        <v>108.1029952397528</v>
+      </c>
+      <c r="K83">
+        <v>100.449758117056</v>
+      </c>
+      <c r="L83">
+        <v>103.6348290621808</v>
+      </c>
+      <c r="M83">
+        <v>102.3434609878886</v>
+      </c>
+      <c r="N83">
+        <v>108.3865409172731</v>
+      </c>
+      <c r="O83">
+        <v>100.6451824171604</v>
+      </c>
+      <c r="P83">
+        <v>103.8742011199016</v>
+      </c>
+      <c r="Q83">
+        <v>100.7729546170385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84">
+        <v>122.7997233106736</v>
+      </c>
+      <c r="C84">
+        <v>99.98921105809981</v>
+      </c>
+      <c r="D84">
+        <v>100.5729684639272</v>
+      </c>
+      <c r="E84">
+        <v>100.8524958026866</v>
+      </c>
+      <c r="F84">
+        <v>101.8930805161003</v>
+      </c>
+      <c r="G84">
+        <v>102.8028469355779</v>
+      </c>
+      <c r="H84">
+        <v>100.4727942215104</v>
+      </c>
+      <c r="I84">
+        <v>102.9632992465192</v>
+      </c>
+      <c r="J84">
+        <v>108.2733712566847</v>
+      </c>
+      <c r="K84">
+        <v>100.4549341425614</v>
+      </c>
+      <c r="L84">
+        <v>103.7151756589782</v>
+      </c>
+      <c r="M84">
+        <v>102.4051169049802</v>
+      </c>
+      <c r="N84">
+        <v>108.6827084326969</v>
+      </c>
+      <c r="O84">
+        <v>100.6750264763692</v>
+      </c>
+      <c r="P84">
+        <v>103.95648919871</v>
+      </c>
+      <c r="Q84">
+        <v>100.7963347076121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85">
+        <v>123.2151594650137</v>
+      </c>
+      <c r="C85">
+        <v>99.99212302494279</v>
+      </c>
+      <c r="D85">
+        <v>100.5946968527842</v>
+      </c>
+      <c r="E85">
+        <v>100.9233279959589</v>
+      </c>
+      <c r="F85">
+        <v>101.9361267908456</v>
+      </c>
+      <c r="G85">
+        <v>102.9924763697348</v>
+      </c>
+      <c r="H85">
+        <v>100.4866961783983</v>
+      </c>
+      <c r="I85">
+        <v>103.0648738156438</v>
+      </c>
+      <c r="J85">
+        <v>108.4092314426002</v>
+      </c>
+      <c r="K85">
+        <v>100.4709755439211</v>
+      </c>
+      <c r="L85">
+        <v>103.8315536784201</v>
+      </c>
+      <c r="M85">
+        <v>102.4644495556306</v>
+      </c>
+      <c r="N85">
+        <v>109.0058002677047</v>
+      </c>
+      <c r="O85">
+        <v>100.726379096953</v>
+      </c>
+      <c r="P85">
+        <v>104.0524919573199</v>
+      </c>
+      <c r="Q85">
+        <v>100.8145976462866</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86">
+        <v>124.7511605803505</v>
+      </c>
+      <c r="C86">
+        <v>99.92592291541931</v>
+      </c>
+      <c r="D86">
+        <v>100.6130109756361</v>
+      </c>
+      <c r="E86">
+        <v>101.2143471214606</v>
+      </c>
+      <c r="F86">
+        <v>102.018897587634</v>
+      </c>
+      <c r="G86">
+        <v>103.4913699298564</v>
+      </c>
+      <c r="H86">
+        <v>100.5010450409038</v>
+      </c>
+      <c r="I86">
+        <v>103.1925768912956</v>
+      </c>
+      <c r="J86">
+        <v>108.7557116356538</v>
+      </c>
+      <c r="K86">
+        <v>100.5072077224589</v>
+      </c>
+      <c r="L86">
+        <v>104.1379366275631</v>
+      </c>
+      <c r="M86">
+        <v>102.5918717842865</v>
+      </c>
+      <c r="N86">
+        <v>109.9678959541722</v>
+      </c>
+      <c r="O86">
+        <v>100.8791717492117</v>
+      </c>
+      <c r="P86">
+        <v>104.2441056265454</v>
+      </c>
+      <c r="Q86">
+        <v>100.9524078405354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
